--- a/11-30-25 to 12-06-25 Milwaukee Schedule.xlsx
+++ b/11-30-25 to 12-06-25 Milwaukee Schedule.xlsx
@@ -1392,7 +1392,11 @@
           <t>Celina</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1534,7 +1538,7 @@
       <c r="O23" t="inlineStr">
         <is>
           <t>Driver, 
-Wht Camry</t>
+Red Van</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -1605,8 +1609,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Driver, 
-Red Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>

--- a/11-30-25 to 12-06-25 Milwaukee Schedule.xlsx
+++ b/11-30-25 to 12-06-25 Milwaukee Schedule.xlsx
@@ -509,8 +509,16 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -536,24 +544,64 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 1-2</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 1-2</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -563,24 +611,56 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bags 5-6</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bags 5-6</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katheriine </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -590,24 +670,48 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
     </row>

--- a/11-30-25 to 12-06-25 Milwaukee Schedule.xlsx
+++ b/11-30-25 to 12-06-25 Milwaukee Schedule.xlsx
@@ -3046,7 +3046,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3290,12 +3290,13 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
@@ -3337,13 +3338,12 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3505,21 +3505,9 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
@@ -3600,7 +3588,11 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -3641,7 +3633,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3684,7 +3676,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>SENDIK'S, WAUKESHA</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3740,7 +3732,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>SENDIK'S, WAUKESHA</t>
+          <t>701 MEADOWBROOK RD</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3791,7 +3783,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>701 MEADOWBROOK RD</t>
+          <t>https://goo.gl/maps/nTzjcbrWXSU2</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3828,11 +3820,7 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/nTzjcbrWXSU2</t>
-        </is>
-      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
@@ -3870,9 +3858,21 @@
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Santa Fe available, Equip</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
@@ -3923,17 +3923,17 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Santa Fe available, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -3982,12 +3982,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4046,12 +4046,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -4109,12 +4109,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -4172,12 +4172,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -4231,12 +4231,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -4302,12 +4302,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -4368,21 +4368,9 @@
       </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
@@ -4459,7 +4447,11 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
@@ -4496,7 +4488,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4535,7 +4527,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>DAYBREAK, DELAFIELD</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4574,7 +4566,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>DAYBREAK, DELAFIELD</t>
+          <t>622 GENESEE ST</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4613,7 +4605,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>622 GENESEE ST</t>
+          <t>https://goo.gl/maps/dNtyDnuiw6J2</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4650,11 +4642,7 @@
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/dNtyDnuiw6J2</t>
-        </is>
-      </c>
+      <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
@@ -4688,9 +4676,21 @@
       </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
@@ -4725,19 +4725,15 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
@@ -4770,16 +4766,8 @@
       </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>

--- a/11-30-25 to 12-06-25 Milwaukee Schedule.xlsx
+++ b/11-30-25 to 12-06-25 Milwaukee Schedule.xlsx
@@ -1653,7 +1653,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1787,10 +1787,14 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>work w/ Leyna</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
@@ -1854,12 +1858,12 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>work w/ Leyna</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -1921,7 +1925,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2006,7 +2010,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2077,7 +2081,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2149,12 +2153,13 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -2212,13 +2217,13 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
           <t>@ Store,
-Rx</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
@@ -2261,22 +2266,9 @@
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
@@ -2373,7 +2365,11 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:00 AM START </t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2414,7 +2410,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2453,7 +2449,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>ASCENSION ST JOSEPH RX-CHAMBERS #1103, MILW</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2508,7 +2504,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>ASCENSION ST JOSEPH RX-CHAMBERS #1103, MILW</t>
+          <t>5000 W CHAMBERS  ROOM 1801</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2559,7 +2555,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>5000 W CHAMBERS  ROOM 1801</t>
+          <t>ENTER THROUGH MATERNITY(3RD LEVEL) VISITOR ENTRY                         RX IS IN THE LOBBY</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2602,7 +2598,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>ENTER THROUGH MATERNITY(3RD LEVEL) VISITOR ENTRY                         RX IS IN THE LOBBY</t>
+          <t>https://goo.gl/maps/gRgCFNfwBUy</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2669,7 +2665,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/gRgCFNfwBUy</t>
+          <t xml:space="preserve">TO FOLLOW    </t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2737,7 +2733,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW    </t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2788,7 +2784,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>ASCENSION ST FRANCIS RX #1107, MILWAUKEE</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2856,7 +2852,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>ASCENSION ST FRANCIS RX #1107, MILWAUKEE</t>
+          <t>3237 S 16TH ST    ROOM 121</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2923,7 +2919,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>3237 S 16TH ST    ROOM 121</t>
+          <t>https://goo.gl/maps/ckXW882eGXp</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2991,7 +2987,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ckXW882eGXp</t>
+          <t xml:space="preserve">TO FOLLOW    </t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -3058,7 +3054,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW    </t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -3125,7 +3121,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>ASCENSION RX #1105, FRANKLIN-27TH ST</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3196,7 +3192,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>ASCENSION RX #1105, FRANKLIN-27TH ST</t>
+          <t>10101 S 27TH ST    ROOM 1005</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3255,7 +3251,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>10101 S 27TH ST    ROOM 1005</t>
+          <t>https://goo.gl/maps/fQ4V9q61NUS2</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3301,11 +3297,7 @@
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/fQ4V9q61NUS2</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
@@ -3347,9 +3339,21 @@
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
@@ -3409,19 +3413,15 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
@@ -3472,12 +3472,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3509,16 +3509,8 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3596,7 +3588,11 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -3641,7 +3637,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3684,7 +3680,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>ASCENSION SETON RX #1112, MILWAUKEE</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3740,7 +3736,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>ASCENSION SETON RX #1112, MILWAUKEE</t>
+          <t>2301 N LAKE DR</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3791,7 +3787,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>2301 N LAKE DR</t>
+          <t>https://goo.gl/maps/fovW5S1B5ZD2</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3826,7 +3822,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fovW5S1B5ZD2</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3877,7 +3873,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3940,7 +3936,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>ASCENSION CSM OZAUKEE RETAIL RX #1109, MEQUON</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -3999,7 +3995,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>ASCENSION CSM OZAUKEE RETAIL RX #1109, MEQUON</t>
+          <t>13133 N PORT WASHINGTON RD SUITE G1</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -4063,7 +4059,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>13133 N PORT WASHINGTON RD SUITE G1</t>
+          <t>https://goo.gl/maps/ZV1UXpiCr4u</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -4124,11 +4120,7 @@
       </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/ZV1UXpiCr4u</t>
-        </is>
-      </c>
+      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
@@ -4186,9 +4178,21 @@
         </is>
       </c>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Santa Fe available, Equip</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
@@ -4247,19 +4251,15 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>Santa Fe available, Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
@@ -4318,12 +4318,12 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -4372,16 +4372,8 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>

--- a/11-30-25 to 12-06-25 Milwaukee Schedule.xlsx
+++ b/11-30-25 to 12-06-25 Milwaukee Schedule.xlsx
@@ -4928,7 +4928,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>

--- a/11-30-25 to 12-06-25 Milwaukee Schedule.xlsx
+++ b/11-30-25 to 12-06-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y91"/>
+  <dimension ref="A1:Y92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2627,65 +2627,24 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>13425 W WATERTOWN PLANK RD</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Pamela</t>
-        </is>
-      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TO FOLLOW    </t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2697,50 +2656,63 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/3hkzePSppuz</t>
+          <t>13425 W WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>work w/ Lashaun</t>
-        </is>
-      </c>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t xml:space="preserve">TO FOLLOW    </t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2750,41 +2722,45 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/3hkzePSppuz</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>work w/ Michael</t>
+          <t>work w/ Lashaun</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>ASCENSION ST FRANCIS RX #1107, MILWAUKEE</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2800,69 +2776,48 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Santa Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>work w/ Michael</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>3237 S 16TH ST    ROOM 121</t>
+          <t>ASCENSION ST FRANCIS RX #1107, MILWAUKEE</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>COURTESY MEET</t>
-        </is>
-      </c>
+      <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
@@ -2874,24 +2829,28 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Santa Fe available, Equip</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2902,24 +2861,25 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ckXW882eGXp</t>
+          <t>3237 S 16TH ST    ROOM 121</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2927,7 +2887,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>6:30 AM MEET RACINE COURT (HWY 43 &amp; Y)</t>
+          <t>COURTESY MEET</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2941,24 +2901,24 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2969,25 +2929,24 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW    </t>
+          <t>https://goo.gl/maps/ckXW882eGXp</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2995,7 +2954,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM MEET RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3009,24 +2968,24 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3037,24 +2996,25 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t xml:space="preserve">TO FOLLOW    </t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -3062,7 +3022,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3076,24 +3036,24 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3104,12 +3064,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3121,7 +3081,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>ASCENSION RX #1105, FRANKLIN-27TH ST</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3129,7 +3089,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>ROETTGERS EAST TROY ARC</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3143,28 +3103,24 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3175,12 +3131,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3192,7 +3148,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>10101 S 27TH ST    ROOM 1005</t>
+          <t>ASCENSION RX #1105, FRANKLIN-27TH ST</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3200,7 +3156,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>2097 DIVISION STREET</t>
+          <t>ROETTGERS EAST TROY ARC</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3214,12 +3170,12 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3228,18 +3184,30 @@
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3251,7 +3219,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fQ4V9q61NUS2</t>
+          <t>10101 S 27TH ST    ROOM 1005</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3259,7 +3227,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/yHRRMXRkSnLcJJTt9</t>
+          <t>2097 DIVISION STREET</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3271,9 +3239,21 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -3281,27 +3261,34 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/fQ4V9q61NUS2</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/yHRRMXRkSnLcJJTt9</t>
+        </is>
+      </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
@@ -3316,61 +3303,33 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe, Equip</t>
-        </is>
-      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -3380,29 +3339,25 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3413,27 +3368,36 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe, Equip</t>
+        </is>
+      </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3445,23 +3409,27 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3472,18 +3440,26 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3496,7 +3472,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -3505,12 +3481,32 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3527,17 +3523,13 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>3:00 PM START</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -3549,11 +3541,7 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>4:45 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
@@ -3566,7 +3554,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2712 E SUMNER ST</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3574,31 +3562,23 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>DRIVERS GOOGLE MEET VIDEO CALL (PAID)</t>
+          <t>3:00 PM START</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3613,7 +3593,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+          <t>2712 E SUMNER ST</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3621,7 +3601,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>LINK TO JOIN THE MEETING BELOW</t>
+          <t>DRIVERS GOOGLE MEET VIDEO CALL (PAID)</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3629,7 +3609,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3637,7 +3617,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3645,7 +3625,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3658,13 +3638,17 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>meet.google.com/naq-xfpf-mos</t>
+          <t>LINK TO JOIN THE MEETING BELOW</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3672,7 +3656,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>SENDIK'S, WAUKESHA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3680,7 +3664,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>ASCENSION SETON RX #1112, MILWAUKEE</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3688,7 +3672,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>PICK #183, MADISON-PARK ST</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3700,27 +3684,14 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry, Equip</t>
-        </is>
-      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Anyone who drives a company vehicle needs to attend this meeting</t>
+          <t>meet.google.com/naq-xfpf-mos</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3728,7 +3699,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>701 MEADOWBROOK RD</t>
+          <t>SENDIK'S, WAUKESHA</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3736,7 +3707,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>2301 N LAKE DR</t>
+          <t>ASCENSION SETON RX #1112, MILWAUKEE</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3744,7 +3715,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>1312 S PARK STREET</t>
+          <t>PICK #183, MADISON-PARK ST</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3758,20 +3729,25 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry, Equip</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>We will be covering/refreshing on driver safety and responsibilities</t>
+          <t>Anyone who drives a company vehicle needs to attend this meeting</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3779,7 +3755,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nTzjcbrWXSU2</t>
+          <t>701 MEADOWBROOK RD</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3787,7 +3763,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fovW5S1B5ZD2</t>
+          <t>2301 N LAKE DR</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3795,7 +3771,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/GVuttDgtBY82</t>
+          <t>1312 S PARK STREET</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3807,28 +3783,48 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>We will be covering/refreshing on driver safety and responsibilities</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/nTzjcbrWXSU2</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/fovW5S1B5ZD2</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/GVuttDgtBY82</t>
+        </is>
+      </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -3842,57 +3838,25 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Nick</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Santa Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -3907,51 +3871,55 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Jake S</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Santa Fe available, Equip</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>ASCENSION CSM OZAUKEE RETAIL RX #1109, MEQUON</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
     </row>
@@ -3966,24 +3934,24 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jake S</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -3995,27 +3963,22 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>13133 N PORT WASHINGTON RD SUITE G1</t>
+          <t>ASCENSION CSM OZAUKEE RETAIL RX #1109, MEQUON</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
@@ -4030,24 +3993,24 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -4059,24 +4022,25 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ZV1UXpiCr4u</t>
+          <t>13133 N PORT WASHINGTON RD SUITE G1</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>work w/ Qiana</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="X65" t="inlineStr"/>
@@ -4093,24 +4057,24 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -4120,22 +4084,26 @@
       </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/ZV1UXpiCr4u</t>
+        </is>
+      </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>work w/ Qiana</t>
         </is>
       </c>
       <c r="X66" t="inlineStr"/>
@@ -4152,24 +4120,24 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Palmer</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -4178,30 +4146,18 @@
         </is>
       </c>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>Santa Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -4223,24 +4179,24 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -4251,24 +4207,28 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Santa Fe available, Equip</t>
+        </is>
+      </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
@@ -4290,24 +4250,24 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -4318,30 +4278,29 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X69" t="inlineStr"/>
@@ -4358,27 +4317,60 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
@@ -4393,12 +4385,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4428,22 +4420,18 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
@@ -4467,12 +4455,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -4480,7 +4468,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4506,12 +4494,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -4519,7 +4507,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>DAYBREAK, DELAFIELD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4545,12 +4533,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -4558,7 +4546,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>622 GENESEE ST</t>
+          <t>DAYBREAK, DELAFIELD</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4584,12 +4572,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -4597,7 +4585,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dNtyDnuiw6J2</t>
+          <t>622 GENESEE ST</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4623,18 +4611,22 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/dNtyDnuiw6J2</t>
+        </is>
+      </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
@@ -4658,31 +4650,19 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
@@ -4705,27 +4685,31 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
@@ -4748,18 +4732,26 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>19)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
@@ -4783,12 +4775,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>20)</t>
+          <t>19)</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -4818,12 +4810,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>21)</t>
+          <t>20)</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -4853,12 +4845,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>22)</t>
+          <t>21)</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -4888,12 +4880,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>23)</t>
+          <t>22)</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -4923,12 +4915,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>24)</t>
+          <t>23)</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -4958,12 +4950,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>25)</t>
+          <t>24)</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -4993,12 +4985,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>26)</t>
+          <t>25)</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -5028,12 +5020,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>27)</t>
+          <t>26)</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -5063,12 +5055,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>28)</t>
+          <t>27)</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -5098,12 +5090,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>29)</t>
+          <t>28)</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -5133,12 +5125,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>30)</t>
+          <t>29)</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
@@ -5157,6 +5149,41 @@
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
     </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>30)</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-30-25 to 12-06-25 Milwaukee Schedule.xlsx
+++ b/11-30-25 to 12-06-25 Milwaukee Schedule.xlsx
@@ -1529,7 +1529,11 @@
           <t>Leyna</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1597,10 +1601,14 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr"/>
+          <t>Mariah</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>1st Day, work w/ Leyna</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1665,14 +1673,10 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1736,10 +1740,14 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1803,14 +1811,10 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1874,7 +1878,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -1941,7 +1945,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -2026,7 +2030,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -2097,7 +2101,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -2163,9 +2167,21 @@
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2271,11 +2287,7 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2320,7 +2332,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2375,7 +2387,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2418,7 +2430,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>ASCENSION COMMUNITY RX #1102-ATRIUM, RACINE</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2457,7 +2469,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>3811 SPRING ST</t>
+          <t>ASCENSION COMMUNITY RX #1102-ATRIUM, RACINE</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2512,7 +2524,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HCpmGJRX9sG2</t>
+          <t>3811 SPRING ST</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2561,7 +2573,11 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/HCpmGJRX9sG2</t>
+        </is>
+      </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2603,21 +2619,9 @@
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2642,9 +2646,21 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2697,22 +2713,9 @@
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2765,9 +2768,22 @@
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2885,11 +2901,7 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>COURTESY MEET</t>
-        </is>
-      </c>
+      <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
@@ -2954,7 +2966,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>6:30 AM MEET RACINE COURT (HWY 43 &amp; Y)</t>
+          <t>COURTESY MEET</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3022,7 +3034,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM MEET RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3089,7 +3101,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3156,7 +3168,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>ROETTGERS EAST TROY ARC</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3227,7 +3239,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>2097 DIVISION STREET</t>
+          <t>ROETTGERS EAST TROY ARC</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3286,7 +3298,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/yHRRMXRkSnLcJJTt9</t>
+          <t>2097 DIVISION STREET</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3328,7 +3340,11 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/yHRRMXRkSnLcJJTt9</t>
+        </is>
+      </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
@@ -3382,22 +3398,9 @@
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe, Equip</t>
-        </is>
-      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3452,15 +3455,20 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe, Equip</t>
+        </is>
+      </c>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -3509,8 +3517,16 @@
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
@@ -3576,11 +3592,7 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>4:45 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3625,7 +3637,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3672,7 +3684,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3715,7 +3727,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>PICK #183, MADISON-PARK ST</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3771,7 +3783,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>1312 S PARK STREET</t>
+          <t>PICK #183, MADISON-PARK ST</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3822,7 +3834,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/GVuttDgtBY82</t>
+          <t>1312 S PARK STREET</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -3855,7 +3867,11 @@
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/GVuttDgtBY82</t>
+        </is>
+      </c>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
@@ -3905,21 +3921,9 @@
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
     </row>
@@ -3970,15 +3974,19 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
@@ -4029,20 +4037,15 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
@@ -4093,17 +4096,18 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>work w/ Qiana</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="X66" t="inlineStr"/>
@@ -4152,17 +4156,17 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>work w/ Qiana</t>
         </is>
       </c>
       <c r="X67" t="inlineStr"/>
@@ -4223,12 +4227,12 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
@@ -4290,12 +4294,12 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
@@ -4357,18 +4361,17 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X70" t="inlineStr"/>
@@ -4403,9 +4406,22 @@
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
     </row>

--- a/11-30-25 to 12-06-25 Milwaukee Schedule.xlsx
+++ b/11-30-25 to 12-06-25 Milwaukee Schedule.xlsx
@@ -2713,9 +2713,22 @@
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2768,22 +2781,9 @@
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2901,7 +2901,11 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>COURTESY MEET</t>
+        </is>
+      </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
@@ -2966,7 +2970,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>COURTESY MEET</t>
+          <t>6:30 AM MEET RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3034,7 +3038,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>6:30 AM MEET RACINE COURT (HWY 43 &amp; Y)</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3101,7 +3105,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3168,7 +3172,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>ROETTGERS EAST TROY ARC</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3239,7 +3243,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>ROETTGERS EAST TROY ARC</t>
+          <t>2097 DIVISION STREET</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3298,7 +3302,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>2097 DIVISION STREET</t>
+          <t>https://maps.app.goo.gl/yHRRMXRkSnLcJJTt9</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3340,11 +3344,7 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/yHRRMXRkSnLcJJTt9</t>
-        </is>
-      </c>
+      <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
@@ -3398,9 +3398,22 @@
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe, Equip</t>
+        </is>
+      </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3455,20 +3468,15 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe, Equip</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -3517,16 +3525,8 @@
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
@@ -3592,7 +3592,11 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>4:45 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3637,7 +3641,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>4:45 AM OFFICE MEET</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3684,7 +3688,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3727,7 +3731,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>PICK #183, MADISON-PARK ST</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3783,7 +3787,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>PICK #183, MADISON-PARK ST</t>
+          <t>1312 S PARK STREET</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3834,7 +3838,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>1312 S PARK STREET</t>
+          <t>https://goo.gl/maps/GVuttDgtBY82</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -3867,11 +3871,7 @@
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/GVuttDgtBY82</t>
-        </is>
-      </c>
+      <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
@@ -3921,9 +3921,21 @@
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
     </row>
@@ -3974,19 +3986,15 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
@@ -4037,15 +4045,20 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
@@ -4096,18 +4109,17 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>work w/ Qiana</t>
         </is>
       </c>
       <c r="X66" t="inlineStr"/>
@@ -4156,17 +4168,17 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>work w/ Qiana</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X67" t="inlineStr"/>
@@ -4227,12 +4239,12 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
@@ -4294,12 +4306,12 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
@@ -4361,17 +4373,18 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X70" t="inlineStr"/>
@@ -4406,22 +4419,9 @@
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
     </row>
